--- a/v0.2.7/struct.xlsx
+++ b/v0.2.7/struct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Documents\Arduino\ESP32_HTTPS_OTA_APT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801B47F9-786D-439A-8A4B-F9B791C7DB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B082BBC-777D-44F0-AA18-EB1F34F18EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29235" yWindow="8880" windowWidth="17805" windowHeight="14760" xr2:uid="{40B8887A-0BD1-4A86-807F-5934227B243E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{40B8887A-0BD1-4A86-807F-5934227B243E}"/>
   </bookViews>
   <sheets>
     <sheet name="Struct" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="API" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Struct!$B$1:$E$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Struct!$B$1:$E$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="275">
   <si>
     <t>doc["r_en"]</t>
   </si>
@@ -517,21 +517,6 @@
     <t>doc["fl_t"]</t>
   </si>
   <si>
-    <t>doc["5516_en"]</t>
-  </si>
-  <si>
-    <t>doc["5516_p"]</t>
-  </si>
-  <si>
-    <t>doc["5516_l"]</t>
-  </si>
-  <si>
-    <t>doc["5516_c"]</t>
-  </si>
-  <si>
-    <t>doc["5516_t"]</t>
-  </si>
-  <si>
     <t>doc["r_p"]</t>
   </si>
   <si>
@@ -577,9 +562,6 @@
     <t>char user[32]</t>
   </si>
   <si>
-    <t>char host[32]</t>
-  </si>
-  <si>
     <t>char label[32]</t>
   </si>
   <si>
@@ -863,6 +845,30 @@
   </si>
   <si>
     <t>config.nodes.binary.door.pins</t>
+  </si>
+  <si>
+    <t>char host[64]</t>
+  </si>
+  <si>
+    <t>doc["m_id"]</t>
+  </si>
+  <si>
+    <t>config.services.mqtt.id</t>
+  </si>
+  <si>
+    <t>doc["lr_en"]</t>
+  </si>
+  <si>
+    <t>doc["lr_p"]</t>
+  </si>
+  <si>
+    <t>doc["lr_l"]</t>
+  </si>
+  <si>
+    <t>doc["lr_c"]</t>
+  </si>
+  <si>
+    <t>doc["lr_t"]</t>
   </si>
 </sst>
 </file>
@@ -1296,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B76558-8B24-41A2-80CE-D2D9E66F99DE}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>105</v>
@@ -1331,13 +1337,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>4</v>
@@ -1348,13 +1354,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1365,13 +1371,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
@@ -1382,16 +1388,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1399,16 +1405,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1416,13 +1422,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>10</v>
@@ -1436,16 +1442,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1453,16 +1459,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1476,7 +1482,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>14</v>
@@ -1487,16 +1493,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1504,13 +1510,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -1521,13 +1527,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>17</v>
@@ -1544,7 +1550,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>14</v>
@@ -1555,1096 +1561,1113 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>268</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>269</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>190</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1883</v>
+        <v>267</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1883</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" s="3">
-        <v>5</v>
+        <v>187</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>264</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>116</v>
+        <v>243</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>195</v>
+        <v>257</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>28</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E28" s="3">
-        <v>15</v>
+        <v>180</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>37</v>
+        <v>259</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>38</v>
+        <v>257</v>
+      </c>
+      <c r="E29" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E34" s="5">
-        <v>4</v>
+        <v>180</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" t="s">
-        <v>96</v>
+        <v>257</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>47</v>
+        <v>208</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>253</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>51</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>250</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>268</v>
+        <v>89</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>251</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>90</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="F45" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>271</v>
+        <v>53</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E47" s="5">
-        <v>35</v>
+        <v>180</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>55</v>
+        <v>257</v>
+      </c>
+      <c r="E48" s="5">
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E52" s="3">
-        <v>35</v>
+        <v>180</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>64</v>
+        <v>257</v>
+      </c>
+      <c r="E53" s="3">
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>272</v>
+        <v>67</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" s="5">
-        <v>36</v>
+        <v>180</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>72</v>
+        <v>257</v>
+      </c>
+      <c r="E58" s="5">
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F62" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E63" s="3">
-        <v>34</v>
+        <v>180</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>80</v>
+        <v>257</v>
+      </c>
+      <c r="E64" s="3">
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>68</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>14</v>
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>158</v>
+        <v>270</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E68" s="5">
-        <v>39</v>
+        <v>180</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>88</v>
+        <v>257</v>
+      </c>
+      <c r="E69" s="5">
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>74</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>14</v>
+        <v>73</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>78</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="B77" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E76" s="3" t="s">
+      <c r="D77" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E76" xr:uid="{16B76558-8B24-41A2-80CE-D2D9E66F99DE}"/>
+  <autoFilter ref="B1:E77" xr:uid="{16B76558-8B24-41A2-80CE-D2D9E66F99DE}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2680,121 +2703,121 @@
   <sheetData>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B17" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
